--- a/QA-Automation/Homework/HW-02-QA-Automation-Design-Patterns/Tests/AutomationTests/Data/Data.xlsx
+++ b/QA-Automation/Homework/HW-02-QA-Automation-Design-Patterns/Tests/AutomationTests/Data/Data.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" r:id="rId1"/>
+    <sheet name="RegistrationUser" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>

--- a/QA-Automation/Homework/HW-02-QA-Automation-Design-Patterns/Tests/AutomationTests/Data/Data.xlsx
+++ b/QA-Automation/Homework/HW-02-QA-Automation-Design-Patterns/Tests/AutomationTests/Data/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="55">
   <si>
     <t>TestName</t>
   </si>
@@ -126,6 +126,69 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RegistrationWithoutLastNameShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>RegistrationWithoutHobbiesShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>0,0,0</t>
+  </si>
+  <si>
+    <t>RegistrationWithoutUsernameShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>RegistrationWithInvalidPhoneNumberShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>RegistrationWithoutConfirmPasswordsShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>RegistrationWithoutLastNameAndUsernameShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>RegistrationWithoutLastNameAndEmailShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>RegistrationWithoutLastNameAndPasswordShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>RegistrationWithShortPasswordsShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>RegistrationWithoutLastNameAndConfirmPasswordShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>RegistrationWithoutNamesAndHobbiesShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>RegistrationWithoutNamesAndUsernameShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>RegistrationWithoutNamesAndEmailShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>RegistrationWithoutNamesAndPasswordShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>RegistrationWithoutNamesAndConfirmPasswordShoulNotBeProcessed</t>
+  </si>
+  <si>
+    <t>Opalqev</t>
+  </si>
+  <si>
+    <t>Skumriq</t>
+  </si>
+  <si>
+    <t>RegistrationWithoutLastNameAndHobbiesShoulNotBeProcessed</t>
   </si>
 </sst>
 </file>
@@ -478,15 +541,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
@@ -554,10 +617,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -584,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -604,13 +667,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
@@ -631,10 +694,10 @@
         <v>1990</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -654,19 +717,19 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -684,10 +747,10 @@
         <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>32</v>
@@ -704,13 +767,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -731,13 +794,13 @@
         <v>1990</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>32</v>
@@ -754,13 +817,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -781,10 +844,10 @@
         <v>1990</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
         <v>20</v>
@@ -796,21 +859,21 @@
         <v>13</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
@@ -834,7 +897,7 @@
         <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
@@ -849,7 +912,807 @@
         <v>21</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
